--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2233271.096847117</v>
+        <v>2338210.327022484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471978.129614288</v>
+        <v>9488295.57667492</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>144.4149207434243</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>183.1642512458443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.07379336750911</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>68.99215372951124</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.98455791795107</v>
+        <v>255.8490373140896</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>246.9263213593993</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>92.72381196454154</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.5394683647129</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>238.6022248578406</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>50.4998666181657</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>53.19920540693415</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>62.36981422367045</v>
       </c>
       <c r="T13" t="n">
-        <v>71.60395572454127</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.1447214650597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>221.7042229025862</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>68.11883945936997</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.279871084294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>110.6781695176978</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.0157691544086</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>20.25102067617329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.9492756896736</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>99.39152647956271</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>40.36264995190481</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.594095449515125</v>
       </c>
       <c r="E31" t="n">
-        <v>139.511541534052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.6507867899574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>84.90358457993679</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.70843787977307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077787</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.6969570046975</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>69.83388910785339</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>221.8388917144975</v>
+        <v>199.7188997645201</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.85302310518084</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2291.766463610035</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2291.766463610035</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>1960.703576266465</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2042.645130163476</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C4" t="n">
-        <v>1873.708947235569</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>1723.592307823233</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>1723.592307823233</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>1723.592307823233</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178697</v>
+        <v>1370.128328063135</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304341</v>
+        <v>1081.009990566973</v>
       </c>
       <c r="V4" t="n">
-        <v>2560.051851098454</v>
+        <v>826.3255023610859</v>
       </c>
       <c r="W4" t="n">
-        <v>2270.634681061493</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="X4" t="n">
-        <v>2042.645130163476</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="Y4" t="n">
-        <v>2042.645130163476</v>
+        <v>536.9083323241252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>772.8067472977393</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W7" t="n">
-        <v>630.8037095364738</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="X7" t="n">
-        <v>630.8037095364738</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.8037095364738</v>
+        <v>954.4552121279791</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>647.1049639252007</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>263.7392694953011</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>117.5220827131589</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.041635554732</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.938768680375</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.254280474488</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>758.8371104375277</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>530.8475595395104</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,22 +5053,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2383.963271233119</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488568</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606608</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>733.776543148325</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>585.8634495659319</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>417.9651836029407</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898186995</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854707</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X22" t="n">
-        <v>1051.338974243769</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,16 +6077,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.930277414127</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.513107377167</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.523556479149</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900021</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776664</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>3047.140839595364</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300688</v>
+        <v>2876.594459243705</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>3449.581883569134</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>3228.789304425604</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,16 +6715,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.199413378161</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>3913.540429875246</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>3624.123259838286</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>3396.133708940269</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>3175.341129796739</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7159,49 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7259,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>3690.204256532144</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1753.381391910006</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.696903704119</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.279733667159</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.279733667159</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.4871545236284</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>3807.864035926976</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>4435.461999481583</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>60.35797727397573</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>118.6564717779741</v>
       </c>
       <c r="T13" t="n">
-        <v>145.801494602747</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.3794168272091</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>4.005432486450957</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>99.12798163925787</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>141.4594738061302</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.6938862346286</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>231.8866226476547</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>46.57372264691742</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>106.0713126946644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>147.0213775686972</v>
       </c>
       <c r="E31" t="n">
-        <v>6.922421112517128</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>75.37549921168723</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>167.2340587438912</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>147.3599015160493</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>43.72409101823371</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>148.7507642442414</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>64.34558267474662</v>
+        <v>86.46557462472404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.7316302469139</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829580.985374456</v>
+        <v>837899.6838759552</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>829580.985374456</v>
+        <v>837899.6838759552</v>
       </c>
     </row>
     <row r="4">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810793</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26439,25 +26441,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756553</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756548</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909421.5940188817</v>
+        <v>-728634.5023096541</v>
       </c>
       <c r="C6" t="n">
-        <v>419323.1517087114</v>
+        <v>386117.2812662657</v>
       </c>
       <c r="D6" t="n">
-        <v>419323.1517087112</v>
+        <v>226696.0112683732</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794854</v>
+        <v>169487.7577794853</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868407</v>
+        <v>494900.2195868404</v>
       </c>
       <c r="G6" t="n">
         <v>494900.2195868411</v>
       </c>
       <c r="H6" t="n">
-        <v>494900.2195868408</v>
+        <v>494900.2195868409</v>
       </c>
       <c r="I6" t="n">
-        <v>494900.2195868408</v>
+        <v>494900.2195868407</v>
       </c>
       <c r="J6" t="n">
-        <v>277369.0171895634</v>
+        <v>327295.0417768585</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868409</v>
+        <v>494900.2195868407</v>
       </c>
       <c r="L6" t="n">
-        <v>494900.2195868408</v>
+        <v>446606.2495786502</v>
       </c>
       <c r="M6" t="n">
-        <v>409845.1916513288</v>
+        <v>409845.1916513287</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868407</v>
+        <v>494900.2195868406</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868408</v>
+        <v>494900.2195868406</v>
       </c>
       <c r="P6" t="n">
-        <v>494900.2195868407</v>
+        <v>494900.2195868405</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>62.24326423680947</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>166.0767174715687</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9520148915191</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>151.7565422677007</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.7492837455295</v>
+        <v>126.884804349391</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>39.59667697719175</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>125.8608413875533</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.1943732987677</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>172.3195007956128</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>45.85255379167238</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>166.3497438692351</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30192,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,7 +32083,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32795,31 +32797,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447131</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>489.8124929257566</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>577.788297994778</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>358.038337911826</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648388</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>347.2162484813122</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338210.327022484</v>
+        <v>2334114.685517717</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9488295.57667492</v>
+        <v>9488295.576674921</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>330.3537040282061</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>144.4149207434243</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.49978972529595</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>68.99215372951124</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.8490373140896</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>193.9934554619428</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.72381196454154</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>303.5173063788898</v>
       </c>
       <c r="G8" t="n">
-        <v>238.6022248578406</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.4998666181657</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>62.36981422367045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>221.7042229025862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>68.11883945936997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>110.6781695176978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>186.6498836607803</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,19 +2532,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>37.17792077063504</v>
       </c>
       <c r="W25" t="n">
-        <v>239.9492756896736</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.39152647956271</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.594095449515125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>84.90358457993679</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>60.11729550773727</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016493</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>104.7777418077787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.83388910785339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>199.7188997645201</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1606.350901856218</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.085203249468</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>862.2969506512234</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>451.3110458616158</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2291.766463610035</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4409,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.9083323241252</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9721493962183</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962183</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.426130452986</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1387.797382612848</v>
       </c>
       <c r="T4" t="n">
-        <v>1370.128328063135</v>
+        <v>1164.818901807583</v>
       </c>
       <c r="U4" t="n">
-        <v>1081.009990566973</v>
+        <v>1164.818901807583</v>
       </c>
       <c r="V4" t="n">
-        <v>826.3255023610859</v>
+        <v>910.134413601696</v>
       </c>
       <c r="W4" t="n">
-        <v>536.9083323241252</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="X4" t="n">
-        <v>536.9083323241252</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y4" t="n">
-        <v>536.9083323241252</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>809.2519436594666</v>
+        <v>1842.294639468326</v>
       </c>
       <c r="C5" t="n">
-        <v>440.2894267190549</v>
+        <v>1473.332122527914</v>
       </c>
       <c r="D5" t="n">
-        <v>440.2894267190549</v>
+        <v>1115.066423921164</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>729.2781713229197</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="X5" t="n">
-        <v>1457.824646659611</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1067.6853146838</v>
+        <v>2228.894479532448</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>423.1489515180658</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>717.8525085495373</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1468.399656105702</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1800.470091281864</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.8067472977393</v>
+        <v>370.2996089082457</v>
       </c>
       <c r="C7" t="n">
-        <v>603.8705643698324</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1290.147373816993</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.115628253779</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>1048.115628253779</v>
+        <v>772.7406528820155</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.4552121279791</v>
+        <v>551.9480737384854</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221566</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744041</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744041</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="F8" t="n">
-        <v>647.1049639252007</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4421061205821</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>431.4421061205821</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>431.4421061205821</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>431.4421061205821</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>431.4421061205821</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>263.7392694953011</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>117.5220827131589</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4421061205821</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,25 +5120,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2383.963271233119</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2164.361806256059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.286579600257</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.602091394371</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,61 +5491,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1643.635426776346</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1354.218256739386</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.140839595364</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.204656667458</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467151</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569134</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425604</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3913.540429875246</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3624.123259838286</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3396.133708940269</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3175.341129796739</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429802</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.238542663355</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510504</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.280686761778</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>3062.606292977537</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3062.606292977537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3690.204256532144</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1775.724818122104</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1521.040329916217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1231.623159879256</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>782.841029837709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926976</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4435.461999481583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7791,19 +7791,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>129.433013406748</v>
       </c>
       <c r="N3" t="n">
-        <v>186.591198401904</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>60.35797727397573</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>84.94186588374794</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>4.005432486450957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>99.12798163925787</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>147.3599015160448</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>141.4594738061302</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>39.05977172825689</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>214.959722553193</v>
       </c>
       <c r="W25" t="n">
-        <v>46.57372264691742</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.44045370237458</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>147.0213775686972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>167.2340587438912</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.25795120238439</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>147.3599015160493</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.7507642442414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>86.46557462472404</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>38.13892827624252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="16">
@@ -26316,40 +26316,40 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403386</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810793</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756646</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-728634.5023096541</v>
       </c>
       <c r="C6" t="n">
-        <v>386117.2812662657</v>
+        <v>386117.281266266</v>
       </c>
       <c r="D6" t="n">
-        <v>226696.0112683732</v>
+        <v>226696.0112683726</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794853</v>
+        <v>169140.3785251288</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868404</v>
+        <v>494552.8403324833</v>
       </c>
       <c r="G6" t="n">
-        <v>494900.2195868411</v>
+        <v>494552.8403324835</v>
       </c>
       <c r="H6" t="n">
-        <v>494900.2195868409</v>
+        <v>494552.8403324835</v>
       </c>
       <c r="I6" t="n">
-        <v>494900.2195868407</v>
+        <v>494552.8403324831</v>
       </c>
       <c r="J6" t="n">
-        <v>327295.0417768585</v>
+        <v>326947.6625225013</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868407</v>
+        <v>494552.8403324837</v>
       </c>
       <c r="L6" t="n">
-        <v>446606.2495786502</v>
+        <v>446258.8703242929</v>
       </c>
       <c r="M6" t="n">
-        <v>409845.1916513287</v>
+        <v>409497.8123969722</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868406</v>
+        <v>494552.8403324839</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868406</v>
+        <v>494552.8403324836</v>
       </c>
       <c r="P6" t="n">
-        <v>494900.2195868405</v>
+        <v>494552.8403324836</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757597</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022548</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022548</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>81.19399874474789</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>62.24326423680947</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>50.05778269427767</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.7565422677007</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.884804349391</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>212.8825902797686</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>195.5290386501002</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8608413875533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>103.3587393628217</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3195007956128</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>45.85255379167238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30194,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,34 +31451,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>555.0107214892114</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>489.8124929257566</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940682</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M3" t="n">
+        <v>496.3643456887886</v>
+      </c>
+      <c r="N3" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
-      <c r="N3" t="n">
-        <v>577.788297994778</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>358.038337911826</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>201.4225882146024</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>423.6690094058781</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>94.75954470991771</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>347.2162484813122</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962379</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2334114.685517717</v>
+        <v>2335875.215820502</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9488295.576674921</v>
+        <v>9488295.57667492</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>330.3537040282061</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.9656533758505</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.49978972529595</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.15501676996414</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>193.9934554619428</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>246.6994950393307</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110045</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>303.5173063788898</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506841</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991754</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.9171930685451</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>166.8182344285488</v>
       </c>
       <c r="V13" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>175.3253504652194</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>104.7777418077832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>186.6498836607803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>37.17792077063504</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.45282559760447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>100.5140508960355</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>97.54185816719604</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.11729550773727</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>197.7996600496722</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.31341879663</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.350901856218</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.085203249468</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>862.2969506512234</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>451.3110458616158</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2295.707355293236</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1942.938700023122</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
         <v>620.7172435647353</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1584.426130452986</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1387.797382612848</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1164.818901807583</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1164.818901807583</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>910.134413601696</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>620.7172435647353</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>620.7172435647353</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.294639468326</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1473.332122527914</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1115.066423921164</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>729.2781713229197</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926623</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532448</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532448</v>
+        <v>2313.147919269518</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532448</v>
+        <v>2313.147919269518</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532448</v>
+        <v>1960.379263999404</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.894479532448</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.894479532448</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180658</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495373</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508757</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105702</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281864</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2362.930966067699</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082457</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800307</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800307</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800307</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.83186202288</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816993</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820155</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384854</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495405</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495405</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.748203495405</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.748203495405</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796419</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535339</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559527</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="17">
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.832398530834</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1361.415228493873</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1133.425677595856</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2386.238542663355</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2203.383708318259</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1983.7822433412</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7666,34 +7666,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>224.3355197601778</v>
       </c>
       <c r="M3" t="n">
-        <v>129.433013406748</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.94186588374794</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>119.3662399606953</v>
       </c>
       <c r="V13" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.506629716717924</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>176.3785887617855</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.3599015160448</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>39.05977172825689</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>214.959722553193</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.25795120238439</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>19.60579027761605</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403386</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26432,25 +26432,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728634.5023096541</v>
+        <v>-728634.5023096539</v>
       </c>
       <c r="C6" t="n">
-        <v>386117.281266266</v>
+        <v>386117.2812662657</v>
       </c>
       <c r="D6" t="n">
-        <v>226696.0112683726</v>
+        <v>226696.0112683734</v>
       </c>
       <c r="E6" t="n">
-        <v>169140.3785251288</v>
+        <v>169453.0198540495</v>
       </c>
       <c r="F6" t="n">
-        <v>494552.8403324833</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="G6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="H6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614049</v>
       </c>
       <c r="I6" t="n">
-        <v>494552.8403324831</v>
+        <v>494865.4816614046</v>
       </c>
       <c r="J6" t="n">
-        <v>326947.6625225013</v>
+        <v>327260.3038514223</v>
       </c>
       <c r="K6" t="n">
-        <v>494552.8403324837</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="L6" t="n">
-        <v>446258.8703242929</v>
+        <v>446571.5116532143</v>
       </c>
       <c r="M6" t="n">
-        <v>409497.8123969722</v>
+        <v>409810.4537258929</v>
       </c>
       <c r="N6" t="n">
-        <v>494552.8403324839</v>
+        <v>494865.4816614046</v>
       </c>
       <c r="O6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614046</v>
       </c>
       <c r="P6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614049</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757597</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022548</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022548</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>81.19399874474789</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>63.78660509428437</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.05778269427767</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>186.554638619073</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.8825902797686</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>4.345755089131302</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386501002</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>103.3587393628217</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194508</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911068</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,34 +31451,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>522.015880398028</v>
       </c>
       <c r="M3" t="n">
-        <v>496.3643456887886</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.4225882146024</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
